--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgh\Documents\UiPath\NaverWebtoon\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70F77E4-178B-40D3-B8AF-63122710E6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F5C3B3-BBE6-41F9-BB4A-1CB682F7D16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21756" yWindow="972" windowWidth="21600" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -103,7 +103,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -422,7 +421,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -471,7 +470,7 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4"/>
@@ -481,8 +480,11 @@
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" s="2"/>
+    </row>
     <row r="5" spans="1:26">
+      <c r="B5" s="2"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
